--- a/我的APR結果整理.xlsx
+++ b/我的APR結果整理.xlsx
@@ -1710,10 +1710,10 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:H1"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2275,10 +2275,10 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:H1"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
